--- a/Portfólió.xlsx
+++ b/Portfólió.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmy\Desktop\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{236652E2-6BB4-46FF-86F6-03535A3D8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216BD49-1C94-458E-9C53-33E0F316D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CAB3679B-6FDA-422E-92C1-C3F22B2B454B}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Portfólió</t>
+  </si>
+  <si>
+    <t>VJ</t>
   </si>
 </sst>
 </file>
@@ -411,9 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CD2D20-673C-44C4-BDD9-68FDCC453F8A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -422,6 +427,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Portfólió.xlsx
+++ b/Portfólió.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmy\Desktop\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216BD49-1C94-458E-9C53-33E0F316D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB727D-E3F3-4872-82BD-D6F2E0E8E56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CAB3679B-6FDA-422E-92C1-C3F22B2B454B}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Portfólió</t>
   </si>
   <si>
     <t>VJ</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CD2D20-673C-44C4-BDD9-68FDCC453F8A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,6 +435,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
